--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997D409D-2FB4-4012-965A-A09B06AB8647}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD4B59-ADFE-4CBE-B663-BD896F43485C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1440" windowWidth="23760" windowHeight="12870" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="555" windowWidth="21855" windowHeight="13110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
     <sheet name="Material_Artifact" sheetId="2" r:id="rId2"/>
     <sheet name="Material_Fluid" sheetId="3" r:id="rId3"/>
+    <sheet name="TextMap_Material" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +87,14 @@
   </si>
   <si>
     <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value_CN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +494,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -612,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243D2D-47FB-4783-90C3-49D858FEEACC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -638,4 +647,37 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F92B689-17BA-4387-8AE6-14BF42EDDC94}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>111</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59FD4B59-ADFE-4CBE-B663-BD896F43485C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C3B1C-9B07-4885-B9D9-75F2A9D9A0EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="555" windowWidth="21855" windowHeight="13110" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
-    <sheet name="Material_Artifact" sheetId="2" r:id="rId2"/>
-    <sheet name="Material_Fluid" sheetId="3" r:id="rId3"/>
-    <sheet name="TextMap_Material" sheetId="4" r:id="rId4"/>
+    <sheet name="Material_Row" sheetId="4" r:id="rId2"/>
+    <sheet name="Material_Artifact" sheetId="2" r:id="rId3"/>
+    <sheet name="Material_Fluid" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,11 +90,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TextID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Value_CN</t>
+    <t>MaterialName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RowID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,16 +502,16 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
   </cols>
@@ -539,10 +547,10 @@
         <v>100</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -551,7 +559,7 @@
         <v>100</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -568,11 +576,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE409C59-BA11-4456-A500-53EC9050B7FF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC7FBB6-9FC8-4C7A-A3A3-C8EA95FBC15A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -617,12 +647,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243D2D-47FB-4783-90C3-49D858FEEACC}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,37 +677,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F92B689-17BA-4387-8AE6-14BF42EDDC94}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>111</v>
-      </c>
-      <c r="B2">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2C3B1C-9B07-4885-B9D9-75F2A9D9A0EE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8100F-4BF5-4E1C-8EFE-495FCCEBD898}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
-    <sheet name="Material_Row" sheetId="4" r:id="rId2"/>
-    <sheet name="Material_Artifact" sheetId="2" r:id="rId3"/>
-    <sheet name="Material_Fluid" sheetId="3" r:id="rId4"/>
+    <sheet name="Material_Artifact" sheetId="2" r:id="rId2"/>
+    <sheet name="Material_Fluid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,10 +98,6 @@
   </si>
   <si>
     <t>SpriteOutput/Material/apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RowID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -576,33 +571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE409C59-BA11-4456-A500-53EC9050B7FF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC7FBB6-9FC8-4C7A-A3A3-C8EA95FBC15A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -647,7 +620,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243D2D-47FB-4783-90C3-49D858FEEACC}">
   <dimension ref="A1:B2"/>
   <sheetViews>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B8100F-4BF5-4E1C-8EFE-495FCCEBD898}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477DDFA8-AD90-44A4-8586-47F50DB635D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,10 @@
   </si>
   <si>
     <t>SpriteOutput/Material/apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockCapacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,12 +510,13 @@
     <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="26.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,16 +533,19 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -553,13 +561,16 @@
       <c r="E2" s="1">
         <v>100</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="1">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -574,7 +585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC7FBB6-9FC8-4C7A-A3A3-C8EA95FBC15A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{477DDFA8-AD90-44A4-8586-47F50DB635D5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D547E-21D1-4C4B-926B-99375DE55DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,30 @@
   </si>
   <si>
     <t>BlockCapacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_101</t>
+  </si>
+  <si>
+    <t>MaterialName_102</t>
+  </si>
+  <si>
+    <t>MaterialDesc_101</t>
+  </si>
+  <si>
+    <t>MaterialDesc_102</t>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple_golden</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,13 +148,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -145,11 +182,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -498,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -511,37 +552,37 @@
     <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -572,6 +613,64 @@
       </c>
       <c r="I2" s="1" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
+      </c>
+      <c r="F3" s="1">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>102</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>100</v>
+      </c>
+      <c r="F4" s="1">
+        <v>50</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -586,42 +685,42 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D547E-21D1-4C4B-926B-99375DE55DAE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59146310-85DF-4D0E-89A4-9CAAF7584AA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4650" yWindow="1860" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,26 @@
   </si>
   <si>
     <t>SpriteOutput/Material/apple_golden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -588,25 +608,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
       </c>
       <c r="E2" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="H2" s="1">
         <v>1</v>
@@ -617,42 +637,42 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>101</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -664,12 +684,70 @@
         <v>50</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>101</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>100</v>
+      </c>
+      <c r="F5" s="1">
+        <v>50</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>102</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H6" s="1">
         <v>3</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59146310-85DF-4D0E-89A4-9CAAF7584AA4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D56FD-C6A4-437D-A63A-459A74ACBEC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="1860" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2385" yWindow="1395" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
-    <sheet name="Material_Artifact" sheetId="2" r:id="rId2"/>
-    <sheet name="Material_Fluid" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,99 +51,106 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TypeIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArtifactID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ArtifactQuality</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessingTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ProcessingRawList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ModelPath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FluidID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BlockCapacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_101</t>
+  </si>
+  <si>
+    <t>MaterialName_102</t>
+  </si>
+  <si>
+    <t>MaterialDesc_101</t>
+  </si>
+  <si>
+    <t>MaterialDesc_102</t>
+  </si>
+  <si>
+    <t>sss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/bone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple_golden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Currency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PriceBase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnitName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Material_Unit_Ton</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseResource</t>
+  </si>
+  <si>
+    <t>ElementaryProcessedGoods</t>
+  </si>
+  <si>
+    <t>Mineral</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
   <si>
     <t>Comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialName_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialDesc_100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Material/apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BlockCapacity</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialName_101</t>
-  </si>
-  <si>
-    <t>MaterialName_102</t>
-  </si>
-  <si>
-    <t>MaterialDesc_101</t>
-  </si>
-  <si>
-    <t>MaterialDesc_102</t>
-  </si>
-  <si>
-    <t>sss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Material/bone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Material/apple_golden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialName_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialDesc_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Material/Currency</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialName_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialDesc_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,196 +564,252 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.75" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="11.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="18.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>100</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="1">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>14</v>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>29</v>
+      <c r="B3" s="1">
+        <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="H3" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
+      <c r="B4" s="1">
+        <v>0</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="F4" s="1">
-        <v>50</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
+      <c r="B5" s="1">
+        <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="1">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="F5" s="1">
-        <v>50</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>102</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
+      <c r="B6" s="1">
+        <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1">
+        <v>50</v>
+      </c>
+      <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1">
-        <v>3</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -756,86 +817,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BC7FBB6-9FC8-4C7A-A3A3-C8EA95FBC15A}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>100</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243D2D-47FB-4783-90C3-49D858FEEACC}">
-  <dimension ref="A1:B2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>100</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9D56FD-C6A4-437D-A63A-459A74ACBEC1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DBC62A-B677-4F00-9860-77864444F9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2385" yWindow="1395" windowWidth="20745" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="885" windowWidth="27420" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,29 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameEn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_En_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_En_2</t>
+  </si>
+  <si>
+    <t>MaterialName_En_100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_En_101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_En_102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,74 +245,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -306,7 +261,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="505B66"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -564,27 +519,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.5" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="14.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -595,34 +551,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -633,34 +592,37 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>100</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -671,34 +633,37 @@
         <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>100</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -709,34 +674,37 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>50</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>100</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -747,34 +715,37 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>50</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>102</v>
       </c>
@@ -785,30 +756,33 @@
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>50</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>100</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Epic\GameMaster\RPGTale\Data\Data_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97DBC62A-B677-4F00-9860-77864444F9C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39254B-39CA-4443-87CF-EF598D1CA4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="885" windowWidth="27420" windowHeight="13050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1365" windowWidth="26310" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/Material/apple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BlockCapacity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,14 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SpriteOutput/Material/bone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpriteOutput/Material/apple_golden</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MaterialName_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -174,6 +162,45 @@
   </si>
   <si>
     <t>MaterialName_En_102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ElementaryProcessedGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Icon/MTL_001</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Icon/MTL_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Icon/MTL_003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_En_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Icon/MTL_004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/BG/Matetial_BG_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -245,6 +272,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -261,7 +356,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="505B66"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -519,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -534,24 +629,24 @@
     <col min="6" max="6" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.875" style="1" customWidth="1"/>
     <col min="8" max="9" width="14.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="37.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.625" style="1" customWidth="1"/>
+    <col min="10" max="11" width="37.75" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="12.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="3" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -560,28 +655,31 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -589,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -610,19 +708,22 @@
         <v>100</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -630,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -651,19 +752,22 @@
         <v>100</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>100</v>
       </c>
@@ -674,16 +778,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H4" s="1">
         <v>50</v>
@@ -692,19 +796,22 @@
         <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>101</v>
       </c>
@@ -712,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1">
         <v>50</v>
@@ -733,19 +840,22 @@
         <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>102</v>
       </c>
@@ -753,19 +863,19 @@
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1">
         <v>50</v>
@@ -774,16 +884,63 @@
         <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>103</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>16</v>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1">
+        <v>100</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E39254B-39CA-4443-87CF-EF598D1CA4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44159705-C658-4231-9F23-9E4AAD93204F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1365" windowWidth="26310" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2400" yWindow="1170" windowWidth="26310" windowHeight="13095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
+    <sheet name="MaterialType" sheetId="2" r:id="rId2"/>
+    <sheet name="MaterialSubType" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +203,136 @@
   </si>
   <si>
     <t>SpriteOutput/Material/BG/Matetial_BG_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TypeIcon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialType_Name_BaseResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialType_Desc_BaseResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialType_Name_ElementaryProcessedGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialType_Desc_ElementaryProcessedGoods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DefaultShow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mineral,Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal,Leather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Name_BaseResource_Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Desc_BaseResource_Mineral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/apple_golden</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Desc_BaseResource_Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Name_BaseResource_Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Name_ElementaryProcessedGoods_Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Desc_ElementaryProcessedGoods_Metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Name_ElementaryProcessedGoods_Leather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialSubType_Desc_ElementaryProcessedGoods_Leather</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -948,4 +1080,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAEE77C-8351-4FAC-A010-1011F4DEB5C8}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBAB359-FC0F-4D2E-942B-847F7E31EA87}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="54.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="b">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44159705-C658-4231-9F23-9E4AAD93204F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8186A-0F03-47C5-B9C1-80EB17EA4E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1170" windowWidth="26310" windowHeight="13095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1095" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,43 @@
   </si>
   <si>
     <t>MaterialSubType_Desc_ElementaryProcessedGoods_Leather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原石矿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_104</t>
+  </si>
+  <si>
+    <t>MaterialName_En_104</t>
+  </si>
+  <si>
+    <t>MaterialDesc_104</t>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Icon/MTL_006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialName_En_105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialDesc_105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpriteOutput/Material/Icon/MTL_005</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -746,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1072,6 +1109,94 @@
         <v>29</v>
       </c>
       <c r="N7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>104</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1">
+        <v>100</v>
+      </c>
+      <c r="I8" s="1">
+        <v>50</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>105</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1">
+        <v>50</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1179,8 +1304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBAB359-FC0F-4D2E-942B-847F7E31EA87}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
+++ b/GameMaster/RPGTale/Data/Data_Excel/MaterialMetaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\建造工程\Project\GameMaster\RPGTale\Data\Data_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8186A-0F03-47C5-B9C1-80EB17EA4E2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257BD6A7-E03B-4100-AEBF-E087F61CCBC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1095" windowWidth="26310" windowHeight="13035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Material" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>MaterialID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>Metal</t>
-  </si>
-  <si>
-    <t>Normal</t>
   </si>
   <si>
     <t>Comment</t>
@@ -785,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -809,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>2</v>
@@ -836,7 +833,7 @@
         <v>3</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>22</v>
@@ -859,7 +856,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>17</v>
@@ -880,13 +877,13 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>29</v>
+      <c r="M2" s="1">
+        <v>1</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>7</v>
@@ -903,7 +900,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
@@ -924,13 +921,13 @@
         <v>18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>29</v>
+      <c r="M3" s="1">
+        <v>1</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
@@ -947,13 +944,13 @@
         <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>28</v>
@@ -965,16 +962,16 @@
         <v>100</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>29</v>
+      <c r="M4" s="1">
+        <v>1</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>7</v>
@@ -991,7 +988,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1009,16 +1006,16 @@
         <v>100</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>29</v>
+      <c r="M5" s="1">
+        <v>1</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>15</v>
@@ -1035,7 +1032,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>14</v>
@@ -1053,16 +1050,16 @@
         <v>100</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>29</v>
+      <c r="M6" s="1">
+        <v>1</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>15</v>
@@ -1076,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>26</v>
@@ -1097,16 +1094,16 @@
         <v>100</v>
       </c>
       <c r="J7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>29</v>
+      <c r="M7" s="1">
+        <v>1</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>7</v>
@@ -1117,16 +1114,16 @@
         <v>104</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>25</v>
@@ -1141,16 +1138,16 @@
         <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>29</v>
+      <c r="M8" s="1">
+        <v>2</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>7</v>
@@ -1161,16 +1158,16 @@
         <v>105</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>25</v>
@@ -1185,16 +1182,16 @@
         <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>29</v>
+      <c r="M9" s="1">
+        <v>3</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>7</v>
@@ -1230,68 +1227,68 @@
         <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1321,99 +1318,99 @@
         <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" t="s">
         <v>61</v>
-      </c>
-      <c r="B2" t="s">
-        <v>62</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" t="s">
         <v>67</v>
       </c>
-      <c r="E2" t="s">
-        <v>68</v>
-      </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>75</v>
+      </c>
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" t="s">
         <v>78</v>
       </c>
-      <c r="E5" t="s">
-        <v>79</v>
-      </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
